--- a/excel/por manual/local/argentina1.xlsx
+++ b/excel/por manual/local/argentina1.xlsx
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>GOVT</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>COMM</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5310,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -7483,7 +7483,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -7688,7 +7688,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -8098,7 +8098,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -8262,7 +8262,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -8303,7 +8303,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -8672,7 +8672,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -9283,7 +9283,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -9652,7 +9652,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -9734,7 +9734,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -9898,7 +9898,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
